--- a/public/images/gospels/13072025.xlsx
+++ b/public/images/gospels/13072025.xlsx
@@ -58,15 +58,15 @@
     <t>SI</t>
   </si>
   <si>
-    <t xml:space="preserve">domingo, 13 de julio de 2025
+    <t xml:space="preserve">sábado, 12 de julio de 2025
 *Evangelio del Día*
-Lucas 10, 25-37
-En aquel tiempo, se presentó ante Jesús un doctor de la ley para ponerlo a prueba y le preguntó: "Maestro, ¿qué debo hacer para conseguir la vida eterna?" Jesús le dijo: "¿Qué es lo que está escrito en la ley? ¿Qué lees en ella?" El doctor de la ley contestó: "Amarás al Señor tu Dios, con todo tu corazón, con toda tu alma, con todas tus fuerzas y con todo tu ser, y a tu prójimo como a ti mismo". Jesús le dijo: "Has contestado bien; si haces eso, vivirás". El doctor de la ley, para justificarse, le preguntó a Jesús: "¿Y quién es mi prójimo?" Jesús le dijo: "Un hombre que bajaba por el camino de Jerusalén a Jericó, cayó en manos de unos ladrones, los cuales lo robaron, lo hirieron y lo dejaron medio muerto. Sucedió que por el mismo camino bajaba un sacerdote, el cual lo vio y pasó de largo. De igual modo, un levita que pasó por ahí, lo vio y siguió adelante. Pero un samaritano que iba de viaje, al verlo, se compadeció de él, se le acercó, ungió sus heridas con aceite y vino y se las vendó; luego lo puso sobre su cabalgadura, lo llevó a un mesón y cuidó de él. Al día siguiente sacó dos denarios, se los dio al dueño del mesón y le dijo: 'Cuida de él y lo que gastes de más, te lo pagaré a mi regreso'. ¿Cuál de estos tres te parece que se portó como prójimo del hombre que fue asaltado por los ladrones?'' El doctor de la ley le respondió: "El que tuvo compasión de él". Entonces Jesús le dijo: "Anda y haz tú lo mismo".
+Lectura del santo evangelio según san Mateo
+Mateo 10,24-33 En aquel tiempo, Jesús dijo a sus apóstoles: “El discípulo no es más que el maestro, ni el criado más que su señor. Le basta al discípulo ser como su maestro y al criado ser como su señor. Si al señor de la casa lo han llamado Satanás, ¡qué no dirán de sus servidores! No teman a los hombres. No hay nada oculto que no llegue a descubrirse; no hay nada secreto que no llegue a saberse. Lo que les digo de noche, repítanlo en pleno día y lo que les digo al oído, pregónenlo desde las azoteas. No tengan miedo a los que matan el cuerpo, pero no pueden matar el alma. Teman, más bien, a quien puede arrojar al lugar de castigo el alma y el cuerpo. ¿No es verdad que se venden dos pajarillos por una moneda? Sin embargo, ni uno solo de ellos cae por tierra si no lo permite el Padre. En cuanto a ustedes, hasta los cabellos de su cabeza están contados. Por lo tanto, no tengan miedo, porque ustedes valen mucho más que todos los pájaros del mundo. A quien me reconozca delante de los hombres, yo también lo reconoceré ante mi Padre, que está en los cielos; pero al que me niegue delante de los hombres, yo también lo negaré ante mi Padre, que está en los cielos’’.
 *Oración de la mañana*
-Amado Jesús, Tú que nos enseñas el verdadero significado de ser prójimos, ayúdanos a ver a todos los que nos rodean con ojos de compasión. Que en cada rostro que encontramos, veamos tu rostro y que en cada corazón que tocamos, sintamos tu amor. Ayúdanos a no pasar de largo ante el sufrimiento de los demás, sino a ser como el samaritano, dispuesto a ayudar y a cuidar.
-Padre Celestial, despertamos hoy agradecidos por este nuevo día, por esta nueva oportunidad de amarte con todo nuestro ser y de amar a nuestros prójimos como a nosotros mismos. Te pedimos que nos guíes en nuestro camino y que nos ayudes a vivir de acuerdo a tus enseñanzas.
-Espíritu Santo, fuente de consuelo y guía, infunde en nosotros la gracia para poder mostrar misericordia y bondad a todos los que nos encontramos en nuestro camino. Que tu luz nos ilumine para reconocer las necesidades de los demás y tener la valentía para actuar con amor.
-Hacemos esta oración en la confianza de que Tú estás siempre con nosotros, guiándonos y fortaleciéndonos en nuestro diario vivir. Amén.</t>
+Querido Jesús, Tú que nos recuerdas que no somos más que el maestro, ayúdanos a seguir tus enseñanzas y a vivir en humildad. Que nos esforcemos en ser como Tú, llenos de amor y bondad, sin temor a las críticas o al rechazo del mundo. Haznos valientes para proclamar tu nombre, sabiendo que tú nos reconocerás ante el Padre.
+Amado Padre, gracias por este nuevo día, por la vida que nos has dado y por el amor que nos rodea. Sabemos que nada está oculto para Ti. Ayúdanos a recordar que hasta nuestros más pequeños detalles están en tus manos, y que tu amor por nosotros es mayor de lo que podemos comprender. Que no temamos, porque en Ti encontramos nuestro verdadero valor.
+Espíritu Santo, guíanos en este día con tu luz divina. Inspíranos a vivir sin miedo, a proclamar la verdad desde las azoteas, y a amar como Jesús nos enseñó. Ayúdanos a reconocer a Dios en cada persona que encontremos, y a ser luz para aquellos que viven en la oscuridad.
+En la unidad de la Santísima Trinidad, nos encomendamos a tu amor y misericordia. Amén.</t>
   </si>
   <si>
     <t>Omar</t>
